--- a/PhpTravellsAutomation/src/test/resources/Testdata/carbookingtwodataprovider.xlsx
+++ b/PhpTravellsAutomation/src/test/resources/Testdata/carbookingtwodataprovider.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="18075" windowHeight="5280"/>
+    <workbookView windowWidth="14925" windowHeight="3975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:C1"/>
 </workbook>
 </file>
 
@@ -22,7 +23,7 @@
     <t>12/10/2019</t>
   </si>
   <si>
-    <t xml:space="preserve"> '13/10/2019</t>
+    <t>13/10/2019</t>
   </si>
 </sst>
 </file>
@@ -44,7 +45,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -52,11 +52,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -68,15 +82,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -91,6 +106,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -98,21 +121,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -121,40 +129,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,16 +145,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,67 +198,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,103 +348,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +392,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,30 +412,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,23 +449,43 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,130 +512,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -646,6 +647,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,7 +974,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -987,7 +991,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
